--- a/scripts/Matlab_script/Inputs/Core_Info.xlsx
+++ b/scripts/Matlab_script/Inputs/Core_Info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Dropbox (Princeton)\GitHub\magnet\scripts\Matlab_script\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8D3318-A1BC-48F5-BAD5-6AED239CCF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD7E337-9B77-492D-9A8F-358D7E188F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2760" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -482,7 +482,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/scripts/Matlab_script/Inputs/Core_Info.xlsx
+++ b/scripts/Matlab_script/Inputs/Core_Info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Dropbox (Princeton)\GitHub\magnet\scripts\Matlab_script\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\Dropbox (Princeton)\GitHub\magnet\scripts\Matlab_script\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD7E337-9B77-492D-9A8F-358D7E188F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE6567B-1A0A-40F3-985B-25F30A994AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6585" yWindow="345" windowWidth="21600" windowHeight="9885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
     <t>Test Info</t>
   </si>
   <si>
-    <t>Setup: Power Stage: Prototype v1; Power Supplies: BK Precision XLN60026; Oil Bath: Mineral Oil; Water Heater: ANOVA nano --- Water heater temperature: 25 C; DC bias: 0 T --- Oscilloscope: Tektronix DPO5054; Record Length: 10000; Horizontal Scale: 10e-6; Ch1: None; Ch2: Voltage; Ch3: Current; Ch4: None; Trigger: Edge CH2 Positive Flank; Acquisition Mode: Hi Res --- Voltage Measurement: P6501R, Termination: 1e6, Bandwidth: 20e6 --- Current Measurement: Shunt: T&amp;M Research Products 0.983 W-5-10-1STUD; Coaxial: RG 58/U; Termination: 50; Bandwidth: 20e6</t>
+    <t>Setup: Power Stage: Prototype v1; Power Supplies: BK Precision XLN60026; Oil Bath: Mineral Oil; Water Heater: ANOVA nano --- Water heater temperature: 25 C; DC bias: 0 A/m --- Oscilloscope: Tektronix DPO5054; Record Length: 10000; Horizontal Scale: 10e-6 s; Ch1: None; Ch2: Voltage; Ch3: Current; Ch4: None; Trigger: Edge CH2 Positive Flank; Acquisition Mode: Hi Res --- Voltage Measurement: P6501R, Termination: 1e6 ohm, Bandwidth: 20e6 Hz --- Current Measurement: Shunt: T&amp;M Research Products 0.983 ohm W-5-10-1STUD; Coaxial: RG 58/U; Termination: 50 ohm; Bandwidth: 20e6 Hz</t>
   </si>
 </sst>
 </file>
@@ -482,13 +482,13 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="2" max="2" width="116.5703125" customWidth="1"/>
     <col min="3" max="3" width="60.140625" customWidth="1"/>
   </cols>
   <sheetData>
